--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2465428.403159039</v>
+        <v>2463540.821642637</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>586832.2512443424</v>
+        <v>684965.2189718905</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9764652.887013162</v>
+        <v>9764652.887013163</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>245.7296093848293</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>118.834207419189</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>150.962075125797</v>
+        <v>165.2066625923644</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>43.80431246487639</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.72683757586885</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.88171928086625</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>156.3438073813665</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>164.063564612257</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>190.7194870067561</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>12.68762643336765</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>48.54170539482396</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>173.9985270550392</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.61518445926386</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.8435192151919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>37.03135913814467</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965511</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>91.23070601801193</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.217791394374</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>93.71057173897889</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571479</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523556</v>
       </c>
       <c r="S31" t="n">
-        <v>112.1232040470677</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>21.4967355807397</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898637</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.546461473041</v>
+        <v>984.6750962183012</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532629</v>
+        <v>984.6750962183012</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925879</v>
+        <v>984.6750962183012</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276342</v>
+        <v>598.8868436200569</v>
       </c>
       <c r="F2" t="n">
-        <v>469.5440885380266</v>
+        <v>187.9009388304493</v>
       </c>
       <c r="G2" t="n">
-        <v>455.6206844766176</v>
+        <v>173.9775347690402</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>173.9775347690402</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.546461473041</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.546461473041</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,40 +4419,40 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2544.66214644671</v>
+        <v>2530.273674258258</v>
       </c>
       <c r="U5" t="n">
-        <v>2290.900361084802</v>
+        <v>2276.51188889635</v>
       </c>
       <c r="V5" t="n">
-        <v>1959.837473741231</v>
+        <v>1945.449001552779</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.068818471117</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="X5" t="n">
-        <v>1233.603060210037</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.90231075067</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,19 +5121,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>381.3300194168668</v>
+        <v>658.5774644300484</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.698165809328</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>289.9398668627125</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>289.9398668627125</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>289.9398668627125</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>289.9398668627125</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364824</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5883316929522</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.8045051785811</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506742</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687012</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687012</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500518</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="X16" t="n">
-        <v>527.8045051785811</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.8045051785811</v>
+        <v>509.2863307027309</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.0436439308535</v>
+        <v>110.0328757364148</v>
       </c>
       <c r="C19" t="n">
-        <v>527.0436439308535</v>
+        <v>110.0328757364148</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>110.0328757364148</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>110.0328757364148</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1226.098829696071</v>
+        <v>874.9271131227923</v>
       </c>
       <c r="V19" t="n">
-        <v>1226.098829696071</v>
+        <v>620.2426249169055</v>
       </c>
       <c r="W19" t="n">
-        <v>936.6816596591104</v>
+        <v>330.8254548799449</v>
       </c>
       <c r="X19" t="n">
-        <v>708.6921087610932</v>
+        <v>330.8254548799449</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.6921087610932</v>
+        <v>110.0328757364148</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5826,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626374</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
         <v>1050.793780719526</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>353.1576184390885</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>967.0546881959772</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899877</v>
+        <v>967.0546881959772</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P24" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259883</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259883</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>318.4788562136525</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>170.5657626312595</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>170.5657626312595</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>170.5657626312595</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>170.5657626312595</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W25" t="n">
-        <v>531.1091870201129</v>
+        <v>696.5850465240056</v>
       </c>
       <c r="X25" t="n">
-        <v>303.1196361220956</v>
+        <v>468.5954956259883</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>468.5954956259883</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6418,16 +6418,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550795</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181189</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201014</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,28 +6467,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>629.3975440735811</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227157</v>
+        <v>750.8748194215239</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761796</v>
+        <v>637.6995017749879</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452147</v>
+        <v>543.3437276440231</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441925</v>
+        <v>451.191499343001</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276532</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276532</v>
@@ -6616,25 +6616,25 @@
         <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667518</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962063</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1767.556063235566</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1767.556063235566</v>
+        <v>1714.938805772216</v>
       </c>
       <c r="U31" t="n">
-        <v>1534.188289730496</v>
+        <v>1481.571032267145</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.26466680598</v>
+        <v>1282.647409342629</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.60836205039</v>
+        <v>1048.991104587039</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3796764337436</v>
+        <v>876.7624189703926</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715845</v>
+        <v>876.7624189703926</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1138.699705022018</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M36" t="n">
-        <v>1138.699705022018</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7166,10 +7166,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>629.3975440735811</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>629.3975440735811</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>629.3975440735811</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7342,7 +7342,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1221.963989254139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9027,7 +9027,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9264,7 +9264,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>103.539328742065</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>69.36584800767065</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>88.074078711571</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>34.9901683822811</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>132.7334215895636</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>237.6956470037534</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>51.71112833399798</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>37.80406100500818</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.7411341369029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>130.2154619604832</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>30.5943493079786</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>144.8475688490923</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821161.0254491887</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821161.0254491888</v>
+        <v>821161.0254491889</v>
       </c>
     </row>
     <row r="11">
@@ -26314,34 +26314,34 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327926</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327927</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327924</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833787</v>
+        <v>569550.9922833786</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049976</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049986</v>
@@ -26350,10 +26350,10 @@
         <v>574729.2389049985</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049977</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049978</v>
+        <v>574729.2389049976</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284579</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758902</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758784</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477246</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189638</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237156.8575535744</v>
+        <v>-237156.8575535742</v>
       </c>
       <c r="C6" t="n">
-        <v>352811.0216609706</v>
+        <v>352811.0216609705</v>
       </c>
       <c r="D6" t="n">
         <v>352811.0216609701</v>
       </c>
       <c r="E6" t="n">
-        <v>-70494.4724833962</v>
+        <v>-70591.93160936814</v>
       </c>
       <c r="F6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="G6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675278</v>
       </c>
       <c r="H6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.1048675279</v>
       </c>
       <c r="I6" t="n">
-        <v>454665.5639935001</v>
+        <v>454568.104867528</v>
       </c>
       <c r="J6" t="n">
-        <v>278242.3448009071</v>
+        <v>278144.8856749349</v>
       </c>
       <c r="K6" t="n">
-        <v>409807.7622455377</v>
+        <v>409789.2685076031</v>
       </c>
       <c r="L6" t="n">
-        <v>443464.6453522093</v>
+        <v>443464.6453522091</v>
       </c>
       <c r="M6" t="n">
-        <v>319006.5369192397</v>
+        <v>319006.5369192398</v>
       </c>
       <c r="N6" t="n">
-        <v>453807.5521530768</v>
+        <v>453807.5521530767</v>
       </c>
       <c r="O6" t="n">
         <v>453807.552153076</v>
       </c>
       <c r="P6" t="n">
-        <v>409644.9468502303</v>
+        <v>409644.94685023</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108346</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>78.19316337952787</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.09710882567222</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>65.48624523186078</v>
+        <v>51.24165776529335</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>130.6114003440952</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592628</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.371257144362727e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-2.108000729802126e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29272,22 +29272,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942293</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>54.69678998811293</v>
+        <v>208.1209162056323</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,7 +32324,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32336,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318324</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>131.9019867888538</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.1520833060241</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,25 +33172,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,25 +33427,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>246.2250987807835</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>236.674784541927</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>324.5004908836646</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>242.9310004071672</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>380.4309478731433</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>330.1172231204807</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>286.9827555116979</v>
+        <v>440.4068817292173</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,10 +35732,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,7 +35972,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.110726770052</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>258.5257848270734</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>203.2475969558517</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412276</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584678</v>
@@ -36996,7 +36996,7 @@
         <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
@@ -37008,7 +37008,7 @@
         <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043199</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>430.7134600063904</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>468.960750065512</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>648.0715207116461</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>369.5547984453868</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>728.4316101333635</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>581.3832979527658</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
@@ -38187,13 +38187,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
